--- a/biology/Zoologie/Chalcides_parallelus/Chalcides_parallelus.xlsx
+++ b/biology/Zoologie/Chalcides_parallelus/Chalcides_parallelus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcides parallelus est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcides parallelus est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le Nord-Est du Maroc, dans le nord-ouest de l'Algérie, ainsi que dans l'archipel espagnol des îles Zaffarines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le Nord-Est du Maroc, dans le nord-ouest de l'Algérie, ainsi que dans l'archipel espagnol des îles Zaffarines.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Doumergue, 1901 : Essai sur la faune erpétologique de l'Oranie avec des tableaux analytiques et des notations pour la détermination de tous les reptiles et batraciens du Maroc, de l'Algerie et de la Tunisie. L. Fouque, Oran, p. 1-404 (texte intégral).</t>
         </is>
